--- a/语音包.xlsx
+++ b/语音包.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\David\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WarThunderVoice-ShenYangWar-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084FF30-F6F0-42F1-AE61-93F82FD7BABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC36CEF9-22DD-4281-B369-48F9CBF6E033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-25050" yWindow="495" windowWidth="22695" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19605" yWindow="5925" windowWidth="17340" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飞机语音告警" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1201">
   <si>
     <t>语音名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1622,7 +1622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3930,717 +3930,625 @@
     <t>要求空中支援 (街机模式)</t>
   </si>
   <si>
+    <t>vws_airbreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速板开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_altitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_attack_air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中雷达告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_attack_gepard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行高炮警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_attack_sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地空导弹警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_attack_stringer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单兵防空弹警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_behind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六点方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意油量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_critical_altitude</t>
+  </si>
+  <si>
+    <t>决断高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_critical_angle</t>
+  </si>
+  <si>
+    <t>迎角过大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_critical_angle_2</t>
+  </si>
+  <si>
+    <t>最大攻角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_critical_speed</t>
+  </si>
+  <si>
+    <t>决断速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_dangerous_close</t>
+  </si>
+  <si>
+    <t>vws_dangerous_vibration</t>
+  </si>
+  <si>
+    <t>危险振幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_eject</t>
+  </si>
+  <si>
+    <t>弹射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_fuel_low</t>
+  </si>
+  <si>
+    <t>油量低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_gear_down</t>
+  </si>
+  <si>
+    <t>vws_high</t>
+  </si>
+  <si>
+    <t>高(单字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_jammer</t>
+  </si>
+  <si>
+    <t>干扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_left</t>
+  </si>
+  <si>
+    <t>九点方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_left_engine_failure</t>
+  </si>
+  <si>
+    <t>左发失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_left_engine_overheat</t>
+  </si>
+  <si>
+    <t>左发过热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_lock</t>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_lock_cockpit</t>
+  </si>
+  <si>
+    <t>vws_low</t>
+  </si>
+  <si>
+    <t>低(单字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_low_consumables</t>
+  </si>
+  <si>
+    <t>高度过低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_missile_launch</t>
+  </si>
+  <si>
+    <t>导弹发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_over_g</t>
+  </si>
+  <si>
+    <t>注意过载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_pull_up</t>
+  </si>
+  <si>
+    <t>拉起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_right</t>
+  </si>
+  <si>
+    <t>三点方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_right_engine_failure</t>
+  </si>
+  <si>
+    <t>右发失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_right_engine_overheat</t>
+  </si>
+  <si>
+    <t>右发过热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_warning</t>
+  </si>
+  <si>
+    <t>警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 12 一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 6 一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 9 一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 3 一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_check_mech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_increase_engine_rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_left_generator_failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_main_gearbox_failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_right_generator_failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_tailrotor_gearbox_failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 老铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箔条抛洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查机械构件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高引擎转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左发电机失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主变速箱失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾旋翼变速箱失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右发电机失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箔条过少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(虎哥) 人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(团长) 干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(虎哥) 腰子给我创掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 刚才是不是挺脆的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(赵三金) 咋整?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(虎哥) 上烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(赵三金) 高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 跨啦一下子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 不要命啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 都能坚持一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(小亮) 卧槽!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 太深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(赵三金) 弹弓子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 黑粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(虎哥) 旋风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(赵三金) 照我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(赵三金) 啊?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 没有活啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 搁胶布上下一缠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 咬个打火机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 给他举起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箔条空(单字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vws_engine_fire_left</t>
+  </si>
+  <si>
+    <t>vws_engine_fire_right</t>
+  </si>
+  <si>
+    <t>vws_engine_overheat</t>
+  </si>
+  <si>
+    <t>左发起火</t>
+  </si>
+  <si>
+    <t>右发起火</t>
+  </si>
+  <si>
+    <t>引擎过热</t>
+  </si>
+  <si>
+    <t>(刀哥) 开水</t>
+  </si>
+  <si>
+    <t>(刀哥) 哎哎哎, 有事了啊兄弟们</t>
+  </si>
+  <si>
+    <t>vws_decrease_engine_rpm</t>
+  </si>
+  <si>
+    <t>vws_decrease_left_engine_rpm</t>
+  </si>
+  <si>
+    <t>vws_decrease_right_engine_rpm</t>
+  </si>
+  <si>
+    <t>减小发动机速度</t>
+  </si>
+  <si>
+    <t>减小左发速度</t>
+  </si>
+  <si>
+    <t>减小右发速度</t>
+  </si>
+  <si>
+    <t>(赵三金) 链子都都都蹬折了</t>
+  </si>
+  <si>
+    <t>vws_caution</t>
+  </si>
+  <si>
+    <t>(刀哥) 有活</t>
+  </si>
+  <si>
+    <t>(刀哥) 刚才是不是挺脆的</t>
+  </si>
+  <si>
+    <t>朝左滚转改出</t>
+  </si>
+  <si>
+    <t>vws_roll_left</t>
+  </si>
+  <si>
+    <t>(虎哥) 刀哥</t>
+  </si>
+  <si>
+    <t>朝右滚转改出</t>
+  </si>
+  <si>
+    <t>vws_roll_right</t>
+  </si>
+  <si>
+    <t>(虎哥) 团长</t>
+  </si>
+  <si>
+    <t>起落架未到位</t>
+  </si>
+  <si>
+    <t>(刀哥) 露牛子了</t>
+  </si>
+  <si>
+    <t>vws_chaff_flare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vws_chaff_flare_low </t>
+  </si>
+  <si>
+    <t>(团长) 把头抬起来!</t>
+  </si>
+  <si>
+    <t>(团长) 啥样了</t>
+  </si>
+  <si>
+    <t>vws_critical_right_engine_vibration</t>
+  </si>
+  <si>
+    <t>vws_critical_left_engine_vibration</t>
+  </si>
+  <si>
+    <t>vws_critical_engine_vibration</t>
+  </si>
+  <si>
+    <t>vws_critical_engine_vibration(2)</t>
+  </si>
+  <si>
+    <t>右发喘振</t>
+  </si>
+  <si>
+    <t>左发喘振</t>
+  </si>
+  <si>
+    <t>引擎喘振</t>
+  </si>
+  <si>
+    <t>(赵三金) 粉碎性骨折嗷</t>
+  </si>
+  <si>
+    <t>座舱锁定</t>
+  </si>
+  <si>
+    <t>(刀哥) 还乐呢</t>
+  </si>
+  <si>
+    <t>vws_hydrosystem_failure</t>
+  </si>
+  <si>
+    <t>液压系统失效</t>
+  </si>
+  <si>
+    <t>(团长) 怎么搞的</t>
+  </si>
+  <si>
+    <t>vws_bingo</t>
+  </si>
+  <si>
+    <t>(虎哥) 加点汽油嗷</t>
+  </si>
+  <si>
+    <t>vws_check_fuel</t>
+  </si>
+  <si>
+    <t>(刀哥) 脑袋..</t>
+  </si>
+  <si>
     <t>vws_ahead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十二点方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_airbreak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速板开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_altitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_attack_air</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中雷达告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_attack_gepard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行高炮警告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_attack_sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地空导弹警告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_attack_stringer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单兵防空弹警告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_behind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六点方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_bingo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意油量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_check_fuel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃油检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(刀哥) 他谁敢啊</t>
+  </si>
+  <si>
+    <t>危险距离</t>
+  </si>
+  <si>
+    <t>(团长) 下落不明</t>
+  </si>
+  <si>
+    <t>起落架检查</t>
   </si>
   <si>
     <t>vws_check_gear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起落架检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_critical_altitude</t>
-  </si>
-  <si>
-    <t>决断高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_critical_angle</t>
-  </si>
-  <si>
-    <t>迎角过大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_critical_angle_2</t>
-  </si>
-  <si>
-    <t>最大攻角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_critical_speed</t>
-  </si>
-  <si>
-    <t>决断速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_dangerous_close</t>
-  </si>
-  <si>
-    <t>危险距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_dangerous_vibration</t>
-  </si>
-  <si>
-    <t>危险振幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_eject</t>
-  </si>
-  <si>
-    <t>弹射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_engine_failure</t>
-  </si>
-  <si>
-    <t>发动机失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_engine_fire</t>
-  </si>
-  <si>
-    <t>发动机起火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_engine_fire_left</t>
-  </si>
-  <si>
-    <t>左发起火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_engine_fire_right</t>
-  </si>
-  <si>
-    <t>右发起火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_engine_overheat</t>
-  </si>
-  <si>
-    <t>发动机过热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_fire</t>
-  </si>
-  <si>
-    <t>起火警告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_fuel_low</t>
-  </si>
-  <si>
-    <t>油量低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_gear_down</t>
-  </si>
-  <si>
-    <t>起落架放下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_generator_failure</t>
-  </si>
-  <si>
-    <t>发电机失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_high</t>
-  </si>
-  <si>
-    <t>高(单字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_jammer</t>
-  </si>
-  <si>
-    <t>干扰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_left</t>
-  </si>
-  <si>
-    <t>九点方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_left_engine_failure</t>
-  </si>
-  <si>
-    <t>左发失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_left_engine_overheat</t>
-  </si>
-  <si>
-    <t>左发过热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_lock</t>
-  </si>
-  <si>
-    <t>锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_lock_cockpit</t>
-  </si>
-  <si>
-    <t>座舱密闭锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_low</t>
-  </si>
-  <si>
-    <t>低(单字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_low_consumables</t>
-  </si>
-  <si>
-    <t>高度过低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_missile_launch</t>
-  </si>
-  <si>
-    <t>导弹发射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_over_g</t>
-  </si>
-  <si>
-    <t>注意过载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_pull_up</t>
-  </si>
-  <si>
-    <t>拉起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_right</t>
-  </si>
-  <si>
-    <t>三点方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_right_engine_failure</t>
-  </si>
-  <si>
-    <t>右发失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_right_engine_overheat</t>
-  </si>
-  <si>
-    <t>右发过热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_warning</t>
-  </si>
-  <si>
-    <t>警告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 12 一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 6 一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 9 一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 3 一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_caution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_chaff_flare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_check_mech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_counter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_critial_engine_vibration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_critial_left_engine_vibration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_critial_right_engine_vibration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_hydrosystem_failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_increase_engine_rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_left_generator_failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_main_gearbox_failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(小亮) 走!</t>
+  </si>
+  <si>
+    <t>(刀哥) 水太深了</t>
+  </si>
+  <si>
+    <t>(虎哥) 鬼</t>
+  </si>
+  <si>
+    <t>导弹告警</t>
   </si>
   <si>
     <t>vws_missile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_right_generator_failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_roll_left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_roll_right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_tailrotor_gearbox_failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 有活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 老铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箔条抛洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查机械构件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遭遇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重引擎喘振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重左引擎喘振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重右引擎喘振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液压系统错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高引擎转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_decrease_engine_rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_decrease_left_engine_rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_decrease_right_engine_rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低引擎转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低左引擎转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低右引擎转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左发电机失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主变速箱失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝左滚转改出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝右滚转改出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾旋翼变速箱失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右发电机失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">vws_chaff_flare_low </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箔条过少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 等我到调兵山的嗷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(团长) 干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 脑袋..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(团长) 头抬起来来!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 腰子给我创掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 刚才是不是挺脆的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(赵三金) 咋整?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 上烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(赵三金) 高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 崩坏了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 露牛子了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 水太深了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 我TM真服了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 刀_有有有,有事了嗷兄弟们哎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 还乐呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 跨啦一下子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 他谁敢啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 不要命啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 都能坚持一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(小亮) 卧槽!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 太深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(团长) 下落不明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 加点汽油嗷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(赵三金) 弹弓子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 黑粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 旋风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(赵三金) 照我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(赵三金) 粉碎性骨折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(赵三金) 链子都蹬蹬蹬折了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(赵三金) 啊?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 刀哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虎哥) 团长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(团长) 啥样了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(团长) 怎么搞的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 没有活啦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(团长) 把头抬起来!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 搁胶布上下一缠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 咬个打火机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 给他举起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(刀哥) 开水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(赵三金) 走!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箔条空(单字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vws_filename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主警告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4648,7 +4556,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4658,7 +4566,7 @@
       <i/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4666,14 +4574,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4681,20 +4589,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4726,7 +4634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -5261,76 +5169,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5626,29 +5469,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5929,705 +5750,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4FF9C5-FBE8-4DF2-B77C-3B0969E1049B}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="99" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C1" s="99" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="99" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="99" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="99" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="99" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="99" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="99" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="99" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="99" t="s">
         <v>1029</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B10" s="99" t="s">
         <v>1030</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C10" s="99" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="99" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="99" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="99" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="99" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="99" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="99" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="99" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="99" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="99" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="99" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="99" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="99" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="99" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="99" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="99" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="99" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="99" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="99" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="99" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="99" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="99" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="99" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="99" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="99" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B34" s="99" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="99" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B35" s="99" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C38" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C3" s="121" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B48" t="s">
         <v>1086</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="C48" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>1087</v>
       </c>
-      <c r="C4" s="121" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B5" s="118" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C5" s="119" t="s">
+      <c r="B49" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C49" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B9" s="115" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C9" s="116" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C11" s="104" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C67" t="s">
         <v>1119</v>
-      </c>
-      <c r="B12" s="103" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B13" s="103" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B14" s="103" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="102" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B15" s="103" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="102" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="102" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B17" s="103" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C18" s="107" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="109" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B19" s="110" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C19" s="111" t="s">
-        <v>845</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B20" s="108" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C20" s="113" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B21" s="115" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C21" s="116" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B22" s="100" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C22" s="101" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B23" s="106" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C23" s="107" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C53" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -6645,19 +6464,19 @@
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="27" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6668,14 +6487,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="24" thickBot="1">
       <c r="A2" s="92" t="s">
         <v>232</v>
       </c>
       <c r="B2" s="93"/>
       <c r="C2" s="94"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -6686,7 +6505,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -6697,7 +6516,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -6708,7 +6527,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -6719,7 +6538,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -6730,7 +6549,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -6741,7 +6560,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -6752,7 +6571,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -6763,7 +6582,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -6774,7 +6593,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
@@ -6785,7 +6604,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6615,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -6807,7 +6626,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -6818,7 +6637,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
@@ -6829,7 +6648,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -6840,7 +6659,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
@@ -6851,7 +6670,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -6862,7 +6681,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
@@ -6873,7 +6692,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
@@ -6884,7 +6703,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
@@ -6895,7 +6714,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="13" t="s">
         <v>980</v>
       </c>
@@ -6906,7 +6725,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="13" t="s">
         <v>981</v>
       </c>
@@ -6917,7 +6736,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="13" t="s">
         <v>982</v>
       </c>
@@ -6928,7 +6747,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="13" t="s">
         <v>983</v>
       </c>
@@ -6939,14 +6758,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="24" thickBot="1">
       <c r="A27" s="92" t="s">
         <v>233</v>
       </c>
       <c r="B27" s="93"/>
       <c r="C27" s="94"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="17" t="s">
         <v>21</v>
       </c>
@@ -6957,7 +6776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="20" t="s">
         <v>22</v>
       </c>
@@ -6968,7 +6787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
       <c r="A30" s="23" t="s">
         <v>23</v>
       </c>
@@ -6979,14 +6798,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="24" thickBot="1">
       <c r="A31" s="92" t="s">
         <v>234</v>
       </c>
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="17" t="s">
         <v>684</v>
       </c>
@@ -6997,7 +6816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="20" t="s">
         <v>835</v>
       </c>
@@ -7008,7 +6827,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="20" t="s">
         <v>835</v>
       </c>
@@ -7019,7 +6838,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="20" t="s">
         <v>835</v>
       </c>
@@ -7030,7 +6849,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="20" t="s">
         <v>782</v>
       </c>
@@ -7041,7 +6860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="20" t="s">
         <v>682</v>
       </c>
@@ -7052,7 +6871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="23" t="s">
         <v>683</v>
       </c>
@@ -7063,14 +6882,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="24" thickBot="1">
       <c r="A39" s="92" t="s">
         <v>235</v>
       </c>
       <c r="B39" s="93"/>
       <c r="C39" s="94"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="10" t="s">
         <v>36</v>
       </c>
@@ -7081,7 +6900,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="13" t="s">
         <v>37</v>
       </c>
@@ -7092,7 +6911,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
@@ -7103,7 +6922,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="13" t="s">
         <v>39</v>
       </c>
@@ -7114,7 +6933,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="13" t="s">
         <v>40</v>
       </c>
@@ -7125,7 +6944,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
         <v>41</v>
       </c>
@@ -7136,7 +6955,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
@@ -7147,7 +6966,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="13" t="s">
         <v>43</v>
       </c>
@@ -7158,7 +6977,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
@@ -7169,7 +6988,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="13" t="s">
         <v>45</v>
       </c>
@@ -7180,7 +6999,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -7191,7 +7010,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="13" t="s">
         <v>47</v>
       </c>
@@ -7202,7 +7021,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="13" t="s">
         <v>48</v>
       </c>
@@ -7213,7 +7032,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="13" t="s">
         <v>49</v>
       </c>
@@ -7224,7 +7043,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
@@ -7235,7 +7054,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="13" t="s">
         <v>51</v>
       </c>
@@ -7246,7 +7065,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="13" t="s">
         <v>52</v>
       </c>
@@ -7257,7 +7076,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="13" t="s">
         <v>53</v>
       </c>
@@ -7268,7 +7087,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="13" t="s">
         <v>54</v>
       </c>
@@ -7279,7 +7098,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1">
       <c r="A59" s="15" t="s">
         <v>55</v>
       </c>
@@ -7290,7 +7109,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="13" t="s">
         <v>979</v>
       </c>
@@ -7301,7 +7120,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="13" t="s">
         <v>678</v>
       </c>
@@ -7312,7 +7131,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="13" t="s">
         <v>679</v>
       </c>
@@ -7323,7 +7142,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="13" t="s">
         <v>680</v>
       </c>
@@ -7334,7 +7153,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1">
       <c r="A64" s="13" t="s">
         <v>978</v>
       </c>
@@ -7345,7 +7164,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="10" t="s">
         <v>681</v>
       </c>
@@ -7356,7 +7175,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="13" t="s">
         <v>677</v>
       </c>
@@ -7367,7 +7186,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="13" t="s">
         <v>676</v>
       </c>
@@ -7378,7 +7197,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" thickBot="1">
       <c r="A68" s="15" t="s">
         <v>675</v>
       </c>
@@ -7389,7 +7208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="13" t="s">
         <v>56</v>
       </c>
@@ -7400,7 +7219,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="13" t="s">
         <v>57</v>
       </c>
@@ -7411,7 +7230,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="13" t="s">
         <v>58</v>
       </c>
@@ -7422,7 +7241,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="13" t="s">
         <v>59</v>
       </c>
@@ -7433,7 +7252,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="13" t="s">
         <v>60</v>
       </c>
@@ -7444,7 +7263,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="13" t="s">
         <v>61</v>
       </c>
@@ -7455,7 +7274,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="13" t="s">
         <v>62</v>
       </c>
@@ -7466,7 +7285,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="13" t="s">
         <v>63</v>
       </c>
@@ -7477,7 +7296,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="13" t="s">
         <v>674</v>
       </c>
@@ -7488,7 +7307,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="13" t="s">
         <v>673</v>
       </c>
@@ -7499,7 +7318,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="13" t="s">
         <v>672</v>
       </c>
@@ -7510,7 +7329,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="13" t="s">
         <v>64</v>
       </c>
@@ -7521,7 +7340,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="13" t="s">
         <v>658</v>
       </c>
@@ -7532,7 +7351,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" thickBot="1">
       <c r="A82" s="15" t="s">
         <v>659</v>
       </c>
@@ -7543,7 +7362,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="10" t="s">
         <v>660</v>
       </c>
@@ -7554,7 +7373,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="13" t="s">
         <v>661</v>
       </c>
@@ -7565,7 +7384,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="13" t="s">
         <v>662</v>
       </c>
@@ -7576,7 +7395,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="13" t="s">
         <v>663</v>
       </c>
@@ -7587,7 +7406,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="13" t="s">
         <v>664</v>
       </c>
@@ -7598,7 +7417,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="13" t="s">
         <v>665</v>
       </c>
@@ -7609,7 +7428,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="13" t="s">
         <v>666</v>
       </c>
@@ -7620,7 +7439,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="13" t="s">
         <v>667</v>
       </c>
@@ -7631,7 +7450,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="13" t="s">
         <v>668</v>
       </c>
@@ -7642,7 +7461,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15.75" thickBot="1">
       <c r="A92" s="15" t="s">
         <v>669</v>
       </c>
@@ -7653,7 +7472,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="10" t="s">
         <v>670</v>
       </c>
@@ -7664,7 +7483,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="13" t="s">
         <v>671</v>
       </c>
@@ -7675,7 +7494,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="13" t="s">
         <v>685</v>
       </c>
@@ -7686,7 +7505,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="13" t="s">
         <v>686</v>
       </c>
@@ -7697,7 +7516,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="13" t="s">
         <v>687</v>
       </c>
@@ -7708,7 +7527,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="13" t="s">
         <v>688</v>
       </c>
@@ -7719,7 +7538,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="13" t="s">
         <v>689</v>
       </c>
@@ -7730,7 +7549,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="13" t="s">
         <v>690</v>
       </c>
@@ -7741,7 +7560,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="13" t="s">
         <v>691</v>
       </c>
@@ -7752,7 +7571,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="13" t="s">
         <v>692</v>
       </c>
@@ -7763,7 +7582,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="13" t="s">
         <v>853</v>
       </c>
@@ -7774,7 +7593,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="13" t="s">
         <v>852</v>
       </c>
@@ -7785,7 +7604,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="13" t="s">
         <v>693</v>
       </c>
@@ -7796,7 +7615,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15.75" thickBot="1">
       <c r="A106" s="15" t="s">
         <v>694</v>
       </c>
@@ -7807,7 +7626,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15.75" thickBot="1">
       <c r="A107" s="10" t="s">
         <v>65</v>
       </c>
@@ -7818,7 +7637,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="10" t="s">
         <v>66</v>
       </c>
@@ -7829,7 +7648,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="13" t="s">
         <v>67</v>
       </c>
@@ -7840,7 +7659,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="13" t="s">
         <v>68</v>
       </c>
@@ -7851,7 +7670,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="13" t="s">
         <v>69</v>
       </c>
@@ -7862,7 +7681,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="13" t="s">
         <v>70</v>
       </c>
@@ -7873,7 +7692,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="13" t="s">
         <v>71</v>
       </c>
@@ -7884,7 +7703,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="13" t="s">
         <v>72</v>
       </c>
@@ -7895,7 +7714,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="13" t="s">
         <v>73</v>
       </c>
@@ -7906,7 +7725,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="13" t="s">
         <v>74</v>
       </c>
@@ -7917,7 +7736,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="13" t="s">
         <v>75</v>
       </c>
@@ -7928,7 +7747,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="13" t="s">
         <v>76</v>
       </c>
@@ -7939,7 +7758,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="15.75" thickBot="1">
       <c r="A119" s="15" t="s">
         <v>77</v>
       </c>
@@ -7950,7 +7769,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="10" t="s">
         <v>78</v>
       </c>
@@ -7961,7 +7780,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="13" t="s">
         <v>79</v>
       </c>
@@ -7972,7 +7791,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="13" t="s">
         <v>80</v>
       </c>
@@ -7983,7 +7802,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="13" t="s">
         <v>81</v>
       </c>
@@ -7994,7 +7813,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="13" t="s">
         <v>82</v>
       </c>
@@ -8005,7 +7824,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="13" t="s">
         <v>83</v>
       </c>
@@ -8016,7 +7835,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="13" t="s">
         <v>84</v>
       </c>
@@ -8027,7 +7846,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="13" t="s">
         <v>85</v>
       </c>
@@ -8038,7 +7857,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="13" t="s">
         <v>86</v>
       </c>
@@ -8049,7 +7868,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="13" t="s">
         <v>87</v>
       </c>
@@ -8060,7 +7879,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="13" t="s">
         <v>88</v>
       </c>
@@ -8071,7 +7890,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="13" t="s">
         <v>89</v>
       </c>
@@ -8082,7 +7901,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="13" t="s">
         <v>90</v>
       </c>
@@ -8093,7 +7912,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="13" t="s">
         <v>91</v>
       </c>
@@ -8104,7 +7923,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="13" t="s">
         <v>92</v>
       </c>
@@ -8115,7 +7934,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="13" t="s">
         <v>93</v>
       </c>
@@ -8126,7 +7945,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="13" t="s">
         <v>94</v>
       </c>
@@ -8137,7 +7956,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="13" t="s">
         <v>95</v>
       </c>
@@ -8148,7 +7967,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="13" t="s">
         <v>96</v>
       </c>
@@ -8159,7 +7978,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="13" t="s">
         <v>97</v>
       </c>
@@ -8170,7 +7989,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="13" t="s">
         <v>98</v>
       </c>
@@ -8181,7 +8000,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="13" t="s">
         <v>99</v>
       </c>
@@ -8192,7 +8011,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="13" t="s">
         <v>100</v>
       </c>
@@ -8203,7 +8022,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="13" t="s">
         <v>101</v>
       </c>
@@ -8214,7 +8033,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="15.75" thickBot="1">
       <c r="A144" s="15" t="s">
         <v>102</v>
       </c>
@@ -8225,7 +8044,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="10" t="s">
         <v>104</v>
       </c>
@@ -8236,7 +8055,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="13" t="s">
         <v>105</v>
       </c>
@@ -8247,7 +8066,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="13" t="s">
         <v>106</v>
       </c>
@@ -8258,7 +8077,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="13" t="s">
         <v>985</v>
       </c>
@@ -8269,7 +8088,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="13" t="s">
         <v>103</v>
       </c>
@@ -8280,7 +8099,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="13" t="s">
         <v>108</v>
       </c>
@@ -8291,7 +8110,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="13" t="s">
         <v>834</v>
       </c>
@@ -8302,7 +8121,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="13" t="s">
         <v>109</v>
       </c>
@@ -8313,7 +8132,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="13" t="s">
         <v>110</v>
       </c>
@@ -8324,7 +8143,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="13" t="s">
         <v>111</v>
       </c>
@@ -8335,7 +8154,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="13" t="s">
         <v>112</v>
       </c>
@@ -8346,7 +8165,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="13" t="s">
         <v>114</v>
       </c>
@@ -8357,7 +8176,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="13" t="s">
         <v>116</v>
       </c>
@@ -8368,7 +8187,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="13" t="s">
         <v>117</v>
       </c>
@@ -8379,7 +8198,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="13" t="s">
         <v>118</v>
       </c>
@@ -8390,7 +8209,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="13" t="s">
         <v>119</v>
       </c>
@@ -8401,7 +8220,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="13" t="s">
         <v>113</v>
       </c>
@@ -8412,7 +8231,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="13" t="s">
         <v>121</v>
       </c>
@@ -8423,7 +8242,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="13" t="s">
         <v>115</v>
       </c>
@@ -8434,7 +8253,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="13" t="s">
         <v>120</v>
       </c>
@@ -8445,7 +8264,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15.75" thickBot="1">
       <c r="A165" s="15" t="s">
         <v>122</v>
       </c>
@@ -8456,7 +8275,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="15.75" thickBot="1">
       <c r="A166" s="13" t="s">
         <v>107</v>
       </c>
@@ -8467,7 +8286,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="15.75" thickBot="1">
       <c r="A167" s="31" t="s">
         <v>695</v>
       </c>
@@ -8478,7 +8297,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="13" t="s">
         <v>974</v>
       </c>
@@ -8489,7 +8308,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="13" t="s">
         <v>696</v>
       </c>
@@ -8500,7 +8319,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="13" t="s">
         <v>973</v>
       </c>
@@ -8511,7 +8330,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="15.75" thickBot="1">
       <c r="A171" s="13" t="s">
         <v>975</v>
       </c>
@@ -8522,14 +8341,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="24" thickBot="1">
       <c r="A172" s="95" t="s">
         <v>626</v>
       </c>
       <c r="B172" s="96"/>
       <c r="C172" s="97"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="34" t="s">
         <v>627</v>
       </c>
@@ -8540,7 +8359,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="35" t="s">
         <v>628</v>
       </c>
@@ -8551,7 +8370,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="15.75" thickBot="1">
       <c r="A175" s="36" t="s">
         <v>630</v>
       </c>
@@ -8562,7 +8381,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="37" t="s">
         <v>631</v>
       </c>
@@ -8573,7 +8392,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="35" t="s">
         <v>632</v>
       </c>
@@ -8584,7 +8403,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="15.75" thickBot="1">
       <c r="A178" s="40" t="s">
         <v>633</v>
       </c>
@@ -8595,7 +8414,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="34" t="s">
         <v>708</v>
       </c>
@@ -8606,7 +8425,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="35" t="s">
         <v>707</v>
       </c>
@@ -8617,7 +8436,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="42" t="s">
         <v>707</v>
       </c>
@@ -8628,7 +8447,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="15.75" thickBot="1">
       <c r="A182" s="43" t="s">
         <v>709</v>
       </c>
@@ -8639,7 +8458,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="34" t="s">
         <v>705</v>
       </c>
@@ -8650,7 +8469,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="15.75" thickBot="1">
       <c r="A184" s="36" t="s">
         <v>706</v>
       </c>
@@ -8661,7 +8480,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="44" t="s">
         <v>718</v>
       </c>
@@ -8672,7 +8491,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="35" t="s">
         <v>719</v>
       </c>
@@ -8683,7 +8502,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="15.75" thickBot="1">
       <c r="A187" s="45" t="s">
         <v>710</v>
       </c>
@@ -8694,7 +8513,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="46" t="s">
         <v>717</v>
       </c>
@@ -8705,7 +8524,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A189" s="43" t="s">
         <v>720</v>
       </c>
@@ -8716,7 +8535,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="34" t="s">
         <v>713</v>
       </c>
@@ -8727,7 +8546,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="35" t="s">
         <v>714</v>
       </c>
@@ -8738,7 +8557,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="15.75" thickBot="1">
       <c r="A192" s="43" t="s">
         <v>712</v>
       </c>
@@ -8749,7 +8568,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="47" t="s">
         <v>716</v>
       </c>
@@ -8760,7 +8579,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="15.75" thickBot="1">
       <c r="A194" s="43" t="s">
         <v>715</v>
       </c>
@@ -8771,7 +8590,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="34" t="s">
         <v>642</v>
       </c>
@@ -8782,7 +8601,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="35" t="s">
         <v>643</v>
       </c>
@@ -8793,7 +8612,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="15.75" thickBot="1">
       <c r="A197" s="36" t="s">
         <v>641</v>
       </c>
@@ -8804,7 +8623,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="34" t="s">
         <v>644</v>
       </c>
@@ -8815,7 +8634,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="35" t="s">
         <v>645</v>
       </c>
@@ -8826,7 +8645,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="15.75" thickBot="1">
       <c r="A200" s="36" t="s">
         <v>646</v>
       </c>
@@ -8839,7 +8658,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="34" t="s">
         <v>648</v>
       </c>
@@ -8852,7 +8671,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="35" t="s">
         <v>649</v>
       </c>
@@ -8865,7 +8684,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="15.75" thickBot="1">
       <c r="A203" s="36" t="s">
         <v>650</v>
       </c>
@@ -8878,7 +8697,7 @@
       <c r="F203" s="91"/>
       <c r="G203" s="91"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="34" t="s">
         <v>651</v>
       </c>
@@ -8891,7 +8710,7 @@
       <c r="F204" s="91"/>
       <c r="G204" s="91"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="35" t="s">
         <v>652</v>
       </c>
@@ -8904,7 +8723,7 @@
       <c r="F205" s="91"/>
       <c r="G205" s="91"/>
     </row>
-    <row r="206" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="15.75" thickBot="1">
       <c r="A206" s="36" t="s">
         <v>653</v>
       </c>
@@ -8917,7 +8736,7 @@
       <c r="F206" s="91"/>
       <c r="G206" s="91"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="34" t="s">
         <v>638</v>
       </c>
@@ -8930,7 +8749,7 @@
       <c r="F207" s="91"/>
       <c r="G207" s="91"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="35" t="s">
         <v>637</v>
       </c>
@@ -8943,7 +8762,7 @@
       <c r="F208" s="91"/>
       <c r="G208" s="91"/>
     </row>
-    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
       <c r="A209" s="36" t="s">
         <v>654</v>
       </c>
@@ -8954,7 +8773,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="14.25" customHeight="1">
       <c r="A210" s="34" t="s">
         <v>639</v>
       </c>
@@ -8965,7 +8784,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="35" t="s">
         <v>640</v>
       </c>
@@ -8976,7 +8795,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="15.75" thickBot="1">
       <c r="A212" s="36" t="s">
         <v>647</v>
       </c>
@@ -8987,7 +8806,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="34" t="s">
         <v>656</v>
       </c>
@@ -8998,7 +8817,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="13" t="s">
         <v>657</v>
       </c>
@@ -9009,7 +8828,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="15.75" thickBot="1">
       <c r="A215" s="48" t="s">
         <v>655</v>
       </c>
@@ -9020,7 +8839,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="15.75" thickBot="1">
       <c r="A216" s="49" t="s">
         <v>778</v>
       </c>
@@ -9031,7 +8850,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="34" t="s">
         <v>225</v>
       </c>
@@ -9042,7 +8861,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="53" t="s">
         <v>220</v>
       </c>
@@ -9053,7 +8872,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="53" t="s">
         <v>221</v>
       </c>
@@ -9064,7 +8883,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="53" t="s">
         <v>222</v>
       </c>
@@ -9075,7 +8894,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="53" t="s">
         <v>223</v>
       </c>
@@ -9086,7 +8905,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="15.75" thickBot="1">
       <c r="A222" s="45" t="s">
         <v>224</v>
       </c>
@@ -9097,7 +8916,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="34" t="s">
         <v>226</v>
       </c>
@@ -9108,7 +8927,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="53" t="s">
         <v>227</v>
       </c>
@@ -9119,7 +8938,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="53" t="s">
         <v>228</v>
       </c>
@@ -9130,7 +8949,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="53" t="s">
         <v>229</v>
       </c>
@@ -9141,7 +8960,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="53" t="s">
         <v>230</v>
       </c>
@@ -9152,7 +8971,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="15.75" thickBot="1">
       <c r="A228" s="45" t="s">
         <v>231</v>
       </c>
@@ -9163,7 +8982,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="47" t="s">
         <v>726</v>
       </c>
@@ -9174,7 +8993,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="53" t="s">
         <v>727</v>
       </c>
@@ -9185,7 +9004,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="53" t="s">
         <v>728</v>
       </c>
@@ -9196,7 +9015,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="53" t="s">
         <v>729</v>
       </c>
@@ -9207,7 +9026,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" s="53" t="s">
         <v>730</v>
       </c>
@@ -9218,7 +9037,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="53" t="s">
         <v>736</v>
       </c>
@@ -9229,7 +9048,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="53" t="s">
         <v>740</v>
       </c>
@@ -9240,7 +9059,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" s="53" t="s">
         <v>744</v>
       </c>
@@ -9251,7 +9070,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" s="53" t="s">
         <v>741</v>
       </c>
@@ -9262,7 +9081,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="53" t="s">
         <v>742</v>
       </c>
@@ -9273,7 +9092,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="53" t="s">
         <v>243</v>
       </c>
@@ -9284,7 +9103,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="53" t="s">
         <v>750</v>
       </c>
@@ -9295,7 +9114,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="15.75" thickBot="1">
       <c r="A241" s="45" t="s">
         <v>751</v>
       </c>
@@ -9306,7 +9125,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="13" t="s">
         <v>737</v>
       </c>
@@ -9317,7 +9136,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="13" t="s">
         <v>738</v>
       </c>
@@ -9328,7 +9147,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="13" t="s">
         <v>739</v>
       </c>
@@ -9339,7 +9158,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" s="13" t="s">
         <v>743</v>
       </c>
@@ -9350,7 +9169,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" s="13" t="s">
         <v>747</v>
       </c>
@@ -9361,7 +9180,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" s="13" t="s">
         <v>746</v>
       </c>
@@ -9372,7 +9191,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" s="13" t="s">
         <v>745</v>
       </c>
@@ -9383,7 +9202,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" s="13" t="s">
         <v>748</v>
       </c>
@@ -9394,7 +9213,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="15.75" thickBot="1">
       <c r="A250" s="15" t="s">
         <v>749</v>
       </c>
@@ -9405,7 +9224,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="15.75" thickBot="1">
       <c r="A251" s="44" t="s">
         <v>636</v>
       </c>
@@ -9416,7 +9235,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="15.75" thickBot="1">
       <c r="A252" s="36" t="s">
         <v>635</v>
       </c>
@@ -9427,7 +9246,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" s="10" t="s">
         <v>752</v>
       </c>
@@ -9438,7 +9257,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" s="13" t="s">
         <v>753</v>
       </c>
@@ -9449,7 +9268,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" s="13" t="s">
         <v>754</v>
       </c>
@@ -9460,7 +9279,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256" s="13" t="s">
         <v>755</v>
       </c>
@@ -9471,7 +9290,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" s="13" t="s">
         <v>760</v>
       </c>
@@ -9482,7 +9301,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" s="13" t="s">
         <v>756</v>
       </c>
@@ -9493,7 +9312,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="13" t="s">
         <v>762</v>
       </c>
@@ -9504,7 +9323,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="13" t="s">
         <v>764</v>
       </c>
@@ -9515,7 +9334,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="13" t="s">
         <v>766</v>
       </c>
@@ -9526,7 +9345,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="13" t="s">
         <v>768</v>
       </c>
@@ -9537,7 +9356,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="13" t="s">
         <v>777</v>
       </c>
@@ -9548,7 +9367,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="13" t="s">
         <v>776</v>
       </c>
@@ -9559,7 +9378,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="13" t="s">
         <v>774</v>
       </c>
@@ -9570,7 +9389,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="13" t="s">
         <v>772</v>
       </c>
@@ -9581,7 +9400,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" ht="15.75" thickBot="1">
       <c r="A267" s="15" t="s">
         <v>770</v>
       </c>
@@ -9613,22 +9432,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84593F1-5F3D-4C16-8B04-BBE5CE5A1166}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:C141"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="26.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9642,14 +9461,14 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="23.25">
       <c r="A2" s="98" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>354</v>
       </c>
@@ -9660,14 +9479,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="98" t="s">
         <v>356</v>
       </c>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>355</v>
       </c>
@@ -9678,14 +9497,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="23.25">
       <c r="A6" s="98" t="s">
         <v>358</v>
       </c>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>430</v>
       </c>
@@ -9696,7 +9515,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>442</v>
       </c>
@@ -9707,7 +9526,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>431</v>
       </c>
@@ -9718,7 +9537,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>443</v>
       </c>
@@ -9729,7 +9548,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>432</v>
       </c>
@@ -9740,7 +9559,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>444</v>
       </c>
@@ -9751,7 +9570,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>433</v>
       </c>
@@ -9762,7 +9581,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>445</v>
       </c>
@@ -9773,7 +9592,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>434</v>
       </c>
@@ -9784,7 +9603,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>435</v>
       </c>
@@ -9795,7 +9614,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>436</v>
       </c>
@@ -9806,7 +9625,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>437</v>
       </c>
@@ -9817,7 +9636,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>438</v>
       </c>
@@ -9828,7 +9647,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>439</v>
       </c>
@@ -9839,7 +9658,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>440</v>
       </c>
@@ -9850,7 +9669,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>441</v>
       </c>
@@ -9861,7 +9680,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>446</v>
       </c>
@@ -9872,7 +9691,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>447</v>
       </c>
@@ -9883,7 +9702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>448</v>
       </c>
@@ -9894,7 +9713,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>449</v>
       </c>
@@ -9905,7 +9724,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>450</v>
       </c>
@@ -9916,7 +9735,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>451</v>
       </c>
@@ -9927,7 +9746,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>452</v>
       </c>
@@ -9938,7 +9757,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>453</v>
       </c>
@@ -9949,7 +9768,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>454</v>
       </c>
@@ -9960,7 +9779,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>455</v>
       </c>
@@ -9971,14 +9790,14 @@
         <v>481</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="23.25">
       <c r="A33" s="98" t="s">
         <v>571</v>
       </c>
       <c r="B33" s="98"/>
       <c r="C33" s="98"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>564</v>
       </c>
@@ -9989,7 +9808,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>565</v>
       </c>
@@ -10000,7 +9819,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>566</v>
       </c>
@@ -10011,7 +9830,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>567</v>
       </c>
@@ -10022,7 +9841,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>568</v>
       </c>
@@ -10033,7 +9852,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>569</v>
       </c>
@@ -10044,7 +9863,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>570</v>
       </c>
@@ -10055,7 +9874,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>572</v>
       </c>
@@ -10066,7 +9885,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>573</v>
       </c>
@@ -10077,7 +9896,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>574</v>
       </c>
@@ -10088,7 +9907,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>575</v>
       </c>
@@ -10099,7 +9918,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>576</v>
       </c>
@@ -10110,7 +9929,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>577</v>
       </c>
@@ -10121,7 +9940,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>578</v>
       </c>
@@ -10132,7 +9951,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>579</v>
       </c>
@@ -10143,7 +9962,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>580</v>
       </c>
@@ -10154,7 +9973,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>581</v>
       </c>
@@ -10165,7 +9984,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>582</v>
       </c>
@@ -10176,7 +9995,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>583</v>
       </c>
@@ -10187,7 +10006,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>584</v>
       </c>
@@ -10198,7 +10017,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>585</v>
       </c>
@@ -10209,7 +10028,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>586</v>
       </c>
@@ -10220,7 +10039,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>587</v>
       </c>
@@ -10231,7 +10050,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>588</v>
       </c>
@@ -10242,7 +10061,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>589</v>
       </c>
@@ -10253,7 +10072,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>590</v>
       </c>
@@ -10264,7 +10083,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>591</v>
       </c>
@@ -10275,7 +10094,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>592</v>
       </c>
@@ -10286,14 +10105,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="23.25">
       <c r="A62" s="98" t="s">
         <v>359</v>
       </c>
       <c r="B62" s="98"/>
       <c r="C62" s="98"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>360</v>
       </c>
@@ -10304,7 +10123,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>361</v>
       </c>
@@ -10315,7 +10134,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>363</v>
       </c>
@@ -10326,7 +10145,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>362</v>
       </c>
@@ -10337,7 +10156,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>364</v>
       </c>
@@ -10348,7 +10167,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>365</v>
       </c>
@@ -10359,7 +10178,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>366</v>
       </c>
@@ -10370,7 +10189,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>367</v>
       </c>
@@ -10381,7 +10200,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>368</v>
       </c>
@@ -10392,7 +10211,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>369</v>
       </c>
@@ -10403,7 +10222,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>370</v>
       </c>
@@ -10414,7 +10233,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>371</v>
       </c>
@@ -10425,7 +10244,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>372</v>
       </c>
@@ -10436,7 +10255,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>373</v>
       </c>
@@ -10447,7 +10266,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>374</v>
       </c>
@@ -10458,7 +10277,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>375</v>
       </c>
@@ -10469,7 +10288,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>376</v>
       </c>
@@ -10480,7 +10299,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>377</v>
       </c>
@@ -10491,7 +10310,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>378</v>
       </c>
@@ -10502,7 +10321,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>379</v>
       </c>
@@ -10513,7 +10332,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>380</v>
       </c>
@@ -10524,7 +10343,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
         <v>381</v>
       </c>
@@ -10535,7 +10354,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>382</v>
       </c>
@@ -10546,7 +10365,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>383</v>
       </c>
@@ -10557,7 +10376,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
         <v>384</v>
       </c>
@@ -10568,7 +10387,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
         <v>385</v>
       </c>
@@ -10579,7 +10398,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
         <v>386</v>
       </c>
@@ -10590,7 +10409,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>387</v>
       </c>
@@ -10601,7 +10420,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
         <v>388</v>
       </c>
@@ -10612,7 +10431,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
         <v>389</v>
       </c>
@@ -10623,7 +10442,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
         <v>390</v>
       </c>
@@ -10634,7 +10453,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
         <v>391</v>
       </c>
@@ -10645,7 +10464,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
         <v>392</v>
       </c>
@@ -10656,7 +10475,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
         <v>393</v>
       </c>
@@ -10667,7 +10486,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
         <v>902</v>
       </c>
@@ -10678,7 +10497,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
         <v>894</v>
       </c>
@@ -10689,7 +10508,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
         <v>901</v>
       </c>
@@ -10700,7 +10519,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
         <v>394</v>
       </c>
@@ -10711,7 +10530,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
         <v>395</v>
       </c>
@@ -10722,7 +10541,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
         <v>396</v>
       </c>
@@ -10733,7 +10552,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
         <v>397</v>
       </c>
@@ -10744,7 +10563,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
         <v>398</v>
       </c>
@@ -10755,7 +10574,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
         <v>399</v>
       </c>
@@ -10766,7 +10585,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
         <v>400</v>
       </c>
@@ -10777,7 +10596,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
         <v>401</v>
       </c>
@@ -10788,7 +10607,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
         <v>402</v>
       </c>
@@ -10799,7 +10618,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
         <v>403</v>
       </c>
@@ -10810,7 +10629,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
         <v>404</v>
       </c>
@@ -10821,7 +10640,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
         <v>405</v>
       </c>
@@ -10832,7 +10651,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
         <v>406</v>
       </c>
@@ -10843,7 +10662,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
         <v>407</v>
       </c>
@@ -10854,7 +10673,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
         <v>408</v>
       </c>
@@ -10865,7 +10684,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
         <v>409</v>
       </c>
@@ -10876,7 +10695,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
         <v>410</v>
       </c>
@@ -10887,7 +10706,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
         <v>411</v>
       </c>
@@ -10898,7 +10717,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
         <v>412</v>
       </c>
@@ -10909,7 +10728,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
         <v>413</v>
       </c>
@@ -10920,7 +10739,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
         <v>414</v>
       </c>
@@ -10931,7 +10750,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
         <v>415</v>
       </c>
@@ -10942,7 +10761,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
         <v>416</v>
       </c>
@@ -10953,7 +10772,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
         <v>417</v>
       </c>
@@ -10964,7 +10783,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
         <v>418</v>
       </c>
@@ -10975,7 +10794,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
         <v>419</v>
       </c>
@@ -10986,7 +10805,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
         <v>420</v>
       </c>
@@ -10997,7 +10816,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
         <v>421</v>
       </c>
@@ -11008,7 +10827,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
         <v>422</v>
       </c>
@@ -11019,7 +10838,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
         <v>423</v>
       </c>
@@ -11030,7 +10849,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
         <v>424</v>
       </c>
@@ -11041,7 +10860,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
         <v>425</v>
       </c>
@@ -11052,7 +10871,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
         <v>426</v>
       </c>
@@ -11063,7 +10882,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
         <v>427</v>
       </c>
@@ -11074,7 +10893,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
         <v>428</v>
       </c>
@@ -11085,7 +10904,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
         <v>429</v>
       </c>
@@ -11096,7 +10915,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
         <v>896</v>
       </c>
@@ -11107,7 +10926,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
         <v>897</v>
       </c>
@@ -11118,7 +10937,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
         <v>898</v>
       </c>
@@ -11129,7 +10948,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
         <v>899</v>
       </c>
@@ -11140,7 +10959,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
         <v>900</v>
       </c>
@@ -11151,7 +10970,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
         <v>895</v>
       </c>
